--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_6_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_6_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.917694859094965, 50.148251535831946]</t>
+          <t>[49.91766234016524, 50.14828405476167]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.89348980054749, 50.06243132688211]</t>
+          <t>[49.89337796154111, 50.06254316588849]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.84145231202599, 50.12175289693609]</t>
+          <t>[49.83296501771183, 50.13024019125025]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.93626071491943, 50.095188212299774]</t>
+          <t>[49.93621092807351, 50.095237999145695]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.82166707184505, 50.143538215768054]</t>
+          <t>[49.81732533343109, 50.14787995418201]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.97323564281741, 50.14274577199392]</t>
+          <t>[49.9732358155021, 50.14274559930923]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.89305486632238, 50.1469360980719]</t>
+          <t>[49.891966736767706, 50.14802422762657]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.00424216312015, 50.15533271920643]</t>
+          <t>[50.00427167366207, 50.15530320866451]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.94046496225273, 50.2592349970886]</t>
+          <t>[49.94111946031368, 50.25858049902765]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.88338972569379, 50.06928159849798]</t>
+          <t>[49.88333136767328, 50.06933995651849]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.88653613675577, 50.18487314354872]</t>
+          <t>[49.89163989941742, 50.17976938088707]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.023429000422, 50.17439920118433]</t>
+          <t>[50.023557462964355, 50.17427073864197]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.91033486143178, 50.181682921705004]</t>
+          <t>[49.9059763492665, 50.18604143387028]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.827072792515835, 49.98365287164768]</t>
+          <t>[49.82701791426473, 49.983707749898784]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.84916819907331, 50.13390381538296]</t>
+          <t>[49.85151254633582, 50.13155946812045]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.92414273091979, 50.096631157195525]</t>
+          <t>[49.9241802157367, 50.09659367237862]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.85924470765491, 50.12567795015542]</t>
+          <t>[49.85641350336993, 50.1285091544404]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.975926109279435, 50.145476464558875]</t>
+          <t>[49.97597258939603, 50.14542998444228]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.859878916748066, 50.16190757875027]</t>
+          <t>[49.85407629522103, 50.167710200277305]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.86371232758647, 50.02868514735235]</t>
+          <t>[49.86363765574357, 50.02875981919525]</t>
         </is>
       </c>
       <c r="V11" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_6_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_6_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.91766234016524, 50.14828405476167]</t>
+          <t>[49.91745585021906, 50.14849054470785]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.89337796154111, 50.06254316588849]</t>
+          <t>[49.89332765842315, 50.06259346900645]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.83296501771183, 50.13024019125025]</t>
+          <t>[49.838026813916166, 50.125178395045914]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.93621092807351, 50.095237999145695]</t>
+          <t>[49.9361408031657, 50.0953081240535]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.81732533343109, 50.14787995418201]</t>
+          <t>[49.81820894342613, 50.146996344186974]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.9732358155021, 50.14274559930923]</t>
+          <t>[49.97320929574732, 50.14277211906401]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.891966736767706, 50.14802422762657]</t>
+          <t>[49.89356831795219, 50.14642264644209]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.00427167366207, 50.15530320866451]</t>
+          <t>[50.004306307039094, 50.15526857528749]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.94111946031368, 50.25858049902765]</t>
+          <t>[49.93688374786656, 50.26281621147477]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.88333136767328, 50.06933995651849]</t>
+          <t>[49.88342582935338, 50.06924549483839]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.89163989941742, 50.17976938088707]</t>
+          <t>[49.885719898975495, 50.185689381329]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.023557462964355, 50.17427073864197]</t>
+          <t>[50.02373201879268, 50.17409618281365]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.9059763492665, 50.18604143387028]</t>
+          <t>[49.90599779974438, 50.186019983392406]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.82701791426473, 49.983707749898784]</t>
+          <t>[49.827104270995484, 49.98362139316803]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.85151254633582, 50.13155946812045]</t>
+          <t>[49.851116545237744, 50.131955469218525]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.9241802157367, 50.09659367237862]</t>
+          <t>[49.92417179147158, 50.096602096643736]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.85641350336993, 50.1285091544404]</t>
+          <t>[49.85748885602387, 50.12743380178646]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.97597258939603, 50.14542998444228]</t>
+          <t>[49.97584804698096, 50.14555452685735]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.85407629522103, 50.167710200277305]</t>
+          <t>[49.853927519894086, 50.16785897560425]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.86363765574357, 50.02875981919525]</t>
+          <t>[49.86370244798722, 50.028695026951596]</t>
         </is>
       </c>
       <c r="V11" t="n">
